--- a/CrikAuction/Player_List..xlsx
+++ b/CrikAuction/Player_List..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e162715\Desktop\QR_Proj\CrikAuction\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15DC777-059A-4ABB-A28F-D3D78E67C350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA062D1-AF55-4EBD-A65A-B67198B2EB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9E3D72CF-D563-436F-AC4B-80406F14A784}"/>
   </bookViews>
@@ -17,17 +17,14 @@
     <sheet name="Owner" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Registered Players - R21 Premiu'!$A$1:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Registered Players - R21 Premiu'!$A$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="177">
-  <si>
-    <t>Click to Pay (300 rs per Participant)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="173">
   <si>
     <t>Yes</t>
   </si>
@@ -38,9 +35,6 @@
     <t>All Rounder</t>
   </si>
   <si>
-    <t>No, Payment is not done</t>
-  </si>
-  <si>
     <t>T30 1308</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>T31-1404</t>
   </si>
   <si>
-    <t>Yes, Payment done</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yogesh Lalwani </t>
   </si>
   <si>
@@ -183,15 +174,6 @@
   </si>
   <si>
     <t>T30-1702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praveen Dubey </t>
-  </si>
-  <si>
-    <t>T30-806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9th November </t>
   </si>
   <si>
     <t xml:space="preserve">Atharva Kunjir </t>
@@ -468,9 +450,6 @@
     <t>20250605_233115 - CA Amit Mundra.jpg</t>
   </si>
   <si>
-    <t>1758630633024 - Praveen Dubey.jpg</t>
-  </si>
-  <si>
     <t>IMG_20240513_202645 - Vedant Kunjir.jpg</t>
   </si>
   <si>
@@ -556,13 +535,22 @@
   </si>
   <si>
     <t>A-Premium</t>
+  </si>
+  <si>
+    <t>Amit Jadhav</t>
+  </si>
+  <si>
+    <t>T32-0906</t>
+  </si>
+  <si>
+    <t>B-Gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,8 +685,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +899,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1095,6 +1101,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1470,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A243BE6-43F4-40BB-A37D-CF783A58B2FF}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,1236 +1496,1104 @@
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
     <col min="6" max="6" width="25.109375" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9155673500</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7083147157</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9979504953</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8149759914</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9673731238</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9819670857</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9579661955</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7557441144</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9039827276</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9773390345</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6">
-        <v>9039827276</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9724496391</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="6">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="2">
-        <v>8888899586</v>
+        <v>7722043321</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8975210368</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9673731238</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9155673500</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>500000</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9727963793</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>9824818957</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>9819670857</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
         <v>50000</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
+      <c r="C12" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="2">
+        <v>9579661955</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9773390345</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9724496391</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8888899586</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9727963793</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9824818957</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
         <v>9595853245</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7083147157</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>500000</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2">
-        <v>9096041070</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9623312391</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2">
-        <v>9527516903</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9669554995</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7028392345</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2">
         <v>50000</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="2">
+        <v>9096041070</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9623312391</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9527516903</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9881677399</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7028392345</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
         <v>9028701717</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2">
         <v>9028050517</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7620098286</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9979504953</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>500000</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8550990717</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="2">
-        <v>8308844860</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="2">
-        <v>8961144553</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2">
         <v>50000</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7620098286</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8550990717</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8308844860</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8961144553</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9850829430</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8605451999</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="2" t="s">
+      <c r="D32" s="2">
+        <v>9049831155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="2">
-        <v>9850829430</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="2">
-        <v>8605451999</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="2">
-        <v>9049831155</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="D33" s="2">
         <v>8767983156</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="2">
-        <v>8669204534</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8149759914</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1">
-        <v>500000</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="2">
-        <v>9225614268</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="2">
-        <v>7387127776</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2">
         <v>50000</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="2" t="s">
-        <v>105</v>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D34" s="2">
+        <v>8669204534</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9225614268</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7387127776</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="2">
         <v>9477438689</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="E37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="2">
         <v>7030427755</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="2">
-        <v>9545412374</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="2">
-        <v>9766205604</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="2">
-        <v>9820779419</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="H38" s="2">
         <v>50000</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="2" t="s">
-        <v>117</v>
+      <c r="C39" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="D39" s="2">
+        <v>9545412374</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9766205604</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9820779419</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2">
         <v>7415555965</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="2">
-        <v>7722043321</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="2">
-        <v>8177811940</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="2">
-        <v>9561094557</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>165</v>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H42" s="2">
         <v>50000</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>125</v>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D43" s="2">
-        <v>9527700486</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>8177811940</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H43" s="2">
         <v>50000</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="2" t="s">
-        <v>26</v>
+      <c r="C44" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D44" s="2">
+        <v>9561094557</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9527700486</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2">
         <v>8888899586</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="2">
         <v>7058160483</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="2">
-        <v>7557442244</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="2">
-        <v>7557441144</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="2">
         <v>50000</v>
       </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>7557442244</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="G48" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="2">
         <v>50000</v>
       </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="6">
-        <v>8975210368</v>
-      </c>
-      <c r="E49" s="6"/>
+      <c r="C49" s="13">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="2">
         <v>50000</v>
       </c>
-      <c r="I49" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I49" xr:uid="{6A243BE6-43F4-40BB-A37D-CF783A58B2FF}"/>
+  <autoFilter ref="A1:H49" xr:uid="{6A243BE6-43F4-40BB-A37D-CF783A58B2FF}"/>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" display="https://drive.google.com/u/0/open?usp=forms_web&amp;id=18sgci9Fxf1iqAKBF-HdoCns0ulz3H1li" xr:uid="{BCC2EEBF-B85D-4867-AB42-848AB4158521}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://drive.google.com/u/0/open?usp=forms_web&amp;id=18sgci9Fxf1iqAKBF-HdoCns0ulz3H1li" xr:uid="{BCC2EEBF-B85D-4867-AB42-848AB4158521}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2719,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E2207-F1DF-4606-8A82-54D3F2B01496}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2731,181 +2613,156 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="2">
         <v>7030366880</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>9920485544</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>9766698699</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>9164777777</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>7083882345</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>7720072991</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2">
         <v>7276476383</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>9607401470</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
